--- a/codigo_final_organizado/analisis/Tabla_Comparativa_Modelos_Diff.xlsx
+++ b/codigo_final_organizado/analisis/Tabla_Comparativa_Modelos_Diff.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.6584</v>
+        <v>9.760400000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7224</v>
+        <v>0.7485000000000001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.0752</v>
+        <v>3.0618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6576</v>
+        <v>0.6493</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.1338</v>
+        <v>10.969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6686</v>
+        <v>0.6844</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.5458</v>
+        <v>3.1462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5567</v>
+        <v>0.5704</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.2034</v>
+        <v>5.8306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8594000000000001</v>
+        <v>0.8656</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.091</v>
+        <v>1.114</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6489</v>
+        <v>0.6481</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.0985</v>
+        <v>3.5094</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6685</v>
+        <v>0.8032</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.9973</v>
+        <v>2.8994</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6479</v>
+        <v>0.6581</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5528999999999999</v>
+        <v>0.5479000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5492</v>
+        <v>0.5454</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
